--- a/medicine/Psychotrope/La_Chablisienne/La_Chablisienne.xlsx
+++ b/medicine/Psychotrope/La_Chablisienne/La_Chablisienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Chablisienne est une coopérative viticole située à Chablis, dans le département de l'Yonne, en France.
-C'est le principal producteur de vin du département, fournissant plus de 25 % du volume de production de chablis[1].
+C'est le principal producteur de vin du département, fournissant plus de 25 % du volume de production de chablis.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première coopérative de producteurs à Chablis date du 1er mai 1923, sous le nom de « Société coopérative La Chablisienne ». Sa création correspond à une période de difficultés économiques, la vente du vin étant difficile pendant l'entre-deux-guerres.
-Le 14 août 1928 est créée la SARL « La Cave Chablisienne » ; les deux fusionnent le 23 mars 1947 pour former la « Cave Coopérative La Chablisienne », vendant désormais de moins en moins au négoce[2].
+Le 14 août 1928 est créée la SARL « La Cave Chablisienne » ; les deux fusionnent le 23 mars 1947 pour former la « Cave Coopérative La Chablisienne », vendant désormais de moins en moins au négoce.
 Depuis 1993, La Chablisienne, les Caves Bailly Lapierre (Yonne), la Cave des Hautes Côtes (Côte-d'Or), la Cave des Vignerons de Buxy (côte chalonnaise) et les Vignerons des Terres Secrètes (Mâconnais) se regroupent pour former le  GIE « Blasons de Bourgogne ». Le but est de faire des économies d'échelle.
 En 1999, La Chablisienne achète le Château Grenouilles, qui produit le chablis grand cru du climat Grenouilles en quasi-monopole.
 </t>
@@ -547,7 +561,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les associés ont en production 1 250 hectares de vigne, 
 dont :
@@ -586,9 +602,11 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La coopérative propose un peu plus d'une trentaine de cuvées différentes, sans compter ses eaux-de-vie (marc-de-bourgogne et fine-de-bourgogne), dont[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La coopérative propose un peu plus d'une trentaine de cuvées différentes, sans compter ses eaux-de-vie (marc-de-bourgogne et fine-de-bourgogne), dont :
 des chablis grands crus issus du climat des Grenouilles (vignes de 40 ans en moyenne, élevage de 20 mois en cuve et en fûts) :
 « Château Grenouilles » ;
 « Le Fief de Grenouilles » ;
@@ -599,7 +617,7 @@
 « Les Preuses » ;
 des chablis premiers crus (vignes de 25 ans en moyenne, élevage de 12 à 15 mois en cuve et en fûts) :
 « Montée de Tonnerre » ;
-« la Singulière » (assemblage de plusieurs climats[4]) ;
+« la Singulière » (assemblage de plusieurs climats) ;
 « Mont de Milieu » ;
 « Fourchaume » ;
 « Les Lys » ;
